--- a/data/raw_data/Weighing_template_ASL_25Oct21.xlsx
+++ b/data/raw_data/Weighing_template_ASL_25Oct21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigaillewis/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigaillewis/Desktop/FeDOC/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD88D1F7-3A1A-E048-86F4-80F61F38376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FF07E5-776E-A74C-A07A-EDCA00D510A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="500" windowWidth="11320" windowHeight="16260" xr2:uid="{E20C8DE4-288E-174A-8FA3-289B60725EE4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{E20C8DE4-288E-174A-8FA3-289B60725EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C2E4A3-363A-B240-B691-6F7224E7F5E5}">
   <dimension ref="A1:G1435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1418" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A1449" sqref="A1449"/>
+    <sheetView tabSelected="1" topLeftCell="A1411" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F1427" sqref="F1427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12194,7 +12194,7 @@
         <v>14.073499999999999</v>
       </c>
       <c r="D618">
-        <v>14073.5</v>
+        <v>14152.699999999999</v>
       </c>
       <c r="F618" t="s">
         <v>186</v>
